--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Wnt2-Fzd9.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Wnt2-Fzd9.xlsx
@@ -537,7 +537,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.6811250000000001</v>
+        <v>0.6811249999999999</v>
       </c>
       <c r="H2">
         <v>2.043375</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6239323333333333</v>
+        <v>0.9979466666666666</v>
       </c>
       <c r="N2">
-        <v>1.871797</v>
+        <v>2.99384</v>
       </c>
       <c r="O2">
-        <v>0.3831764432292831</v>
+        <v>0.4487505885107415</v>
       </c>
       <c r="P2">
-        <v>0.383176443229283</v>
+        <v>0.4487505885107414</v>
       </c>
       <c r="Q2">
-        <v>0.4249759105416667</v>
+        <v>0.6797264233333332</v>
       </c>
       <c r="R2">
-        <v>3.824783194875</v>
+        <v>6.117537809999999</v>
       </c>
       <c r="S2">
-        <v>0.3831764432292831</v>
+        <v>0.4487505885107415</v>
       </c>
       <c r="T2">
-        <v>0.383176443229283</v>
+        <v>0.4487505885107414</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,7 +599,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.6811250000000001</v>
+        <v>0.6811249999999999</v>
       </c>
       <c r="H3">
         <v>2.043375</v>
@@ -623,22 +623,22 @@
         <v>1.750223</v>
       </c>
       <c r="O3">
-        <v>0.358288972574529</v>
+        <v>0.2623432118199488</v>
       </c>
       <c r="P3">
-        <v>0.3582889725745289</v>
+        <v>0.2623432118199487</v>
       </c>
       <c r="Q3">
-        <v>0.3973735469583334</v>
+        <v>0.3973735469583333</v>
       </c>
       <c r="R3">
         <v>3.576361922625</v>
       </c>
       <c r="S3">
-        <v>0.358288972574529</v>
+        <v>0.2623432118199488</v>
       </c>
       <c r="T3">
-        <v>0.3582889725745289</v>
+        <v>0.2623432118199487</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,7 +661,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.6811250000000001</v>
+        <v>0.6811249999999999</v>
       </c>
       <c r="H4">
         <v>2.043375</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3520556666666667</v>
+        <v>0.4584083333333333</v>
       </c>
       <c r="N4">
-        <v>1.056167</v>
+        <v>1.375225</v>
       </c>
       <c r="O4">
-        <v>0.2162084427510795</v>
+        <v>0.206134271732853</v>
       </c>
       <c r="P4">
-        <v>0.2162084427510794</v>
+        <v>0.2061342717328529</v>
       </c>
       <c r="Q4">
-        <v>0.2397939159583334</v>
+        <v>0.3122333760416666</v>
       </c>
       <c r="R4">
-        <v>2.158145243625</v>
+        <v>2.810100384375</v>
       </c>
       <c r="S4">
-        <v>0.2162084427510795</v>
+        <v>0.206134271732853</v>
       </c>
       <c r="T4">
-        <v>0.2162084427510794</v>
+        <v>0.2061342717328529</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,7 +723,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.6811250000000001</v>
+        <v>0.6811249999999999</v>
       </c>
       <c r="H5">
         <v>2.043375</v>
@@ -735,34 +735,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.06892033333333333</v>
+        <v>0.184071</v>
       </c>
       <c r="N5">
-        <v>0.206761</v>
+        <v>0.5522130000000001</v>
       </c>
       <c r="O5">
-        <v>0.04232614144510853</v>
+        <v>0.08277192793645689</v>
       </c>
       <c r="P5">
-        <v>0.04232614144510852</v>
+        <v>0.08277192793645688</v>
       </c>
       <c r="Q5">
-        <v>0.04694336204166667</v>
+        <v>0.125375359875</v>
       </c>
       <c r="R5">
-        <v>0.422490258375</v>
+        <v>1.128378238875</v>
       </c>
       <c r="S5">
-        <v>0.04232614144510853</v>
+        <v>0.08277192793645689</v>
       </c>
       <c r="T5">
-        <v>0.04232614144510852</v>
+        <v>0.08277192793645688</v>
       </c>
     </row>
   </sheetData>
